--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29583600-623F-44A3-AC0C-7957EDCF2C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B9FB4-535F-4FCF-B0EA-8020CA956E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -91,14 +91,6 @@
   </si>
   <si>
     <t>r4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>r6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>r8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F49BB-6053-48AE-AACD-64FE52C0E962}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -621,9 +613,6 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -635,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F096D2-34E8-4D85-AB4C-FD02C6C39DC3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -677,9 +666,6 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B9FB4-535F-4FCF-B0EA-8020CA956E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF791A-C9E0-41DF-88D7-9AE022DA61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>r4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testdemo1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,7 +513,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -549,6 +553,9 @@
       </c>
       <c r="C2" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF791A-C9E0-41DF-88D7-9AE022DA61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F118FC-A19A-4C86-A1BD-AB339CACC7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>r4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testdemo1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,7 +509,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -553,9 +549,6 @@
       </c>
       <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F118FC-A19A-4C86-A1BD-AB339CACC7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5321BAC9-9B48-4041-BCC0-FA52FA6275E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F49BB-6053-48AE-AACD-64FE52C0E962}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5321BAC9-9B48-4041-BCC0-FA52FA6275E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C8B6E-92C8-447F-8271-61B1F2F2C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
     <sheet name="TestGimick" sheetId="2" r:id="rId2"/>
     <sheet name="TestGimick_choise" sheetId="3" r:id="rId3"/>
     <sheet name="TestGimick_voice" sheetId="4" r:id="rId4"/>
+    <sheet name="CassetteTapeA" sheetId="5" r:id="rId5"/>
+    <sheet name="CassetteTapeB" sheetId="6" r:id="rId6"/>
+    <sheet name="CassetteTapeC" sheetId="7" r:id="rId7"/>
+    <sheet name="CassetteTapeD" sheetId="8" r:id="rId8"/>
+    <sheet name="KasetPlayer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +96,80 @@
   </si>
   <si>
     <t>r4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_001</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT_CassetteTape3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT_CassetteTape4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT_CassetteTape5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_get</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT_CassetteTape2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -134,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,13 +232,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -625,7 +719,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -671,4 +765,316 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50433C38-396D-491F-8EF9-3E35F9DB58FE}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D429CB5-CB3D-44ED-97DF-B9EBECF08E1A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B32760-5434-4AA3-ACE0-AEB88CDE9D6B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B7559-D613-4598-910E-DE315A34C03C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98235F59-918C-4F48-B84F-FA19659B1676}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C8B6E-92C8-447F-8271-61B1F2F2C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D2106E-9501-497B-B5D8-BE962BEB7BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="CassetteTapeC" sheetId="7" r:id="rId7"/>
     <sheet name="CassetteTapeD" sheetId="8" r:id="rId8"/>
     <sheet name="KasetPlayer" sheetId="9" r:id="rId9"/>
+    <sheet name="MemoA" sheetId="10" r:id="rId10"/>
+    <sheet name="RoterRed" sheetId="11" r:id="rId11"/>
+    <sheet name="RoterBlack" sheetId="13" r:id="rId12"/>
+    <sheet name="RoterBlue" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +175,44 @@
   <si>
     <t>TXT_CassettePlayer_T5</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_1_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter_no_Memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter4_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter6_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter8_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Memo_02_read</t>
   </si>
 </sst>
 </file>
@@ -213,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,17 +285,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -550,7 +622,7 @@
     <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -572,16 +644,22 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>110</v>
       </c>
@@ -598,12 +676,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F9F40-1121-4A4B-AD4F-FBEE80ADD126}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22FE96D-9BB5-4004-BB4B-20A71CB101BE}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE314D5B-8FEA-4C1B-9E88-2A6A22AE0344}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCFB34-3A1E-4D54-8E0B-8FB9E2953786}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F49BB-6053-48AE-AACD-64FE52C0E962}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -611,7 +971,7 @@
     <col min="1" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -633,8 +993,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -652,6 +1015,9 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -663,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B6764B-B232-4E15-BB53-3D464BA42B1E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -674,7 +1040,7 @@
     <col min="1" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -696,8 +1062,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -706,6 +1075,9 @@
       </c>
       <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -716,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F096D2-34E8-4D85-AB4C-FD02C6C39DC3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -727,7 +1099,7 @@
     <col min="1" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -749,8 +1121,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -759,6 +1134,9 @@
       </c>
       <c r="C2" t="s">
         <v>14</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -769,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50433C38-396D-491F-8EF9-3E35F9DB58FE}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -780,7 +1158,7 @@
     <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -802,8 +1180,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -815,6 +1196,9 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -826,15 +1210,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D429CB5-CB3D-44ED-97DF-B9EBECF08E1A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -856,8 +1240,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -869,6 +1256,9 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -879,15 +1269,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B32760-5434-4AA3-ACE0-AEB88CDE9D6B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -909,8 +1299,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -922,6 +1315,9 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -932,15 +1328,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B7559-D613-4598-910E-DE315A34C03C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -962,8 +1362,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -975,6 +1378,9 @@
       </c>
       <c r="F2" t="s">
         <v>24</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98235F59-918C-4F48-B84F-FA19659B1676}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -998,7 +1404,7 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1020,8 +1426,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1031,8 +1440,11 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1042,8 +1454,11 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -1053,8 +1468,11 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -1064,13 +1482,19 @@
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>-1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D2106E-9501-497B-B5D8-BE962BEB7BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F1C9E-64EB-4087-8D0E-C2314988B0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="CassetteTapeC" sheetId="7" r:id="rId7"/>
     <sheet name="CassetteTapeD" sheetId="8" r:id="rId8"/>
     <sheet name="KasetPlayer" sheetId="9" r:id="rId9"/>
-    <sheet name="MemoA" sheetId="10" r:id="rId10"/>
-    <sheet name="RoterRed" sheetId="11" r:id="rId11"/>
-    <sheet name="RoterBlack" sheetId="13" r:id="rId12"/>
-    <sheet name="RoterBlue" sheetId="12" r:id="rId13"/>
+    <sheet name="MemoO" sheetId="14" r:id="rId10"/>
+    <sheet name="MemoA" sheetId="10" r:id="rId11"/>
+    <sheet name="RoterRed" sheetId="11" r:id="rId12"/>
+    <sheet name="RoterBlack" sheetId="13" r:id="rId13"/>
+    <sheet name="RoterBlue" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -213,6 +214,14 @@
   </si>
   <si>
     <t>Flag_Memo_02_read</t>
+  </si>
+  <si>
+    <t>TXT_Memo_2_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Memo_01_read</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -677,11 +686,67 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3596D9AE-50E1-45D6-B1A8-8643010953FC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F9F40-1121-4A4B-AD4F-FBEE80ADD126}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -721,7 +786,7 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>44</v>
@@ -736,7 +801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22FE96D-9BB5-4004-BB4B-20A71CB101BE}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -810,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE314D5B-8FEA-4C1B-9E88-2A6A22AE0344}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -884,7 +949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCFB34-3A1E-4D54-8E0B-8FB9E2953786}">
   <dimension ref="A1:H3"/>
   <sheetViews>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B7B92B-4440-412E-8725-A9255125E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0152FD-A665-44AC-93A7-D112B048122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,14 @@
     <sheet name="KasetPlayer" sheetId="9" r:id="rId10"/>
     <sheet name="MemoO" sheetId="14" r:id="rId11"/>
     <sheet name="MemoA" sheetId="10" r:id="rId12"/>
-    <sheet name="RoterRed" sheetId="11" r:id="rId13"/>
-    <sheet name="RoterBlack" sheetId="13" r:id="rId14"/>
-    <sheet name="RoterBlue" sheetId="12" r:id="rId15"/>
+    <sheet name="MemoB" sheetId="16" r:id="rId13"/>
+    <sheet name="MemoC" sheetId="17" r:id="rId14"/>
+    <sheet name="MemoD" sheetId="18" r:id="rId15"/>
+    <sheet name="RoterRed" sheetId="11" r:id="rId16"/>
+    <sheet name="RoterBlack" sheetId="13" r:id="rId17"/>
+    <sheet name="RoterBlue" sheetId="12" r:id="rId18"/>
+    <sheet name="Freezer" sheetId="19" r:id="rId19"/>
+    <sheet name="DimpleKey" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="63">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -226,13 +231,69 @@
   </si>
   <si>
     <t>overWriteProgress</t>
+  </si>
+  <si>
+    <t>Flag_Memo_03_read</t>
+  </si>
+  <si>
+    <t>Flag_Memo_04_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Memo_05_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_3_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_4_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_5_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_DimpleKey_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_DimpleKey_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT_DimpleKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Selected</t>
+  </si>
+  <si>
+    <t>TXT_Freezer_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freezerOpen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +310,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -326,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -341,6 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -879,7 +947,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -938,6 +1006,178 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE02D04C-FD22-4612-A5E3-54709F65941C}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFADA5-9ACB-4026-968E-340252BEDDD5}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6617186E-9F8A-410B-A73A-EEDDC5A8D485}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22FE96D-9BB5-4004-BB4B-20A71CB101BE}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1014,7 +1254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE314D5B-8FEA-4C1B-9E88-2A6A22AE0344}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1091,12 +1331,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCFB34-3A1E-4D54-8E0B-8FB9E2953786}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1160,6 +1400,89 @@
       </c>
       <c r="H3" t="b">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A214A98B-3D2A-49C0-801D-0B4E87DD4C13}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1233,12 +1556,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCDF3CC-64D3-41C8-BA6E-70E7026C1D40}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F49BB-6053-48AE-AACD-64FE52C0E962}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0152FD-A665-44AC-93A7-D112B048122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F4E32-5AA2-4264-A2A9-08A924CDFB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="RoterBlue" sheetId="12" r:id="rId18"/>
     <sheet name="Freezer" sheetId="19" r:id="rId19"/>
     <sheet name="DimpleKey" sheetId="20" r:id="rId20"/>
+    <sheet name="Centrifuge" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="83">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -125,18 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IT_CassetteTape3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IT_CassetteTape4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IT_CassetteTape5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KL_CassetteTape_get</t>
   </si>
   <si>
@@ -144,10 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IT_CassetteTape2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_CassettePlayer_001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,14 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>r6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>r8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Flag_Memo_02_read</t>
   </si>
   <si>
@@ -272,10 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IT_DimpleKey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Flag_DimpleKey_Obtained</t>
   </si>
   <si>
@@ -287,6 +260,97 @@
   </si>
   <si>
     <t>freezerOpen</t>
+  </si>
+  <si>
+    <t>TXT_DimpleKey_03</t>
+  </si>
+  <si>
+    <t>Flag_CloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_08</t>
+  </si>
+  <si>
+    <t>Flag_TestTube_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_RotorSet</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_02</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_05</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_04</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_03</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_06</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_07</t>
+  </si>
+  <si>
+    <t>SetRoter4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetRoter6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetRoter8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Obtained</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Obtained</t>
+  </si>
+  <si>
+    <t>overWriteProgress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Obtained</t>
   </si>
 </sst>
 </file>
@@ -335,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -389,11 +453,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,6 +503,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -726,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -801,10 +901,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -812,10 +912,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -826,10 +926,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -840,10 +940,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -854,10 +954,10 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -868,7 +968,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -916,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -927,10 +1027,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -979,10 +1079,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -990,10 +1090,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1042,10 +1142,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1053,10 +1153,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1098,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1109,10 +1209,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1165,10 +1265,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1182,13 +1282,15 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
@@ -1214,10 +1316,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1225,13 +1327,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1242,7 +1347,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1259,13 +1364,15 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
@@ -1291,10 +1398,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1302,13 +1409,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1319,7 +1429,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1335,14 +1445,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCFB34-3A1E-4D54-8E0B-8FB9E2953786}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
@@ -1368,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1379,13 +1490,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1396,7 +1510,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1446,10 +1560,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1457,13 +1571,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -1471,10 +1585,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1482,7 +1596,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +1646,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1558,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCDF3CC-64D3-41C8-BA6E-70E7026C1D40}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1572,6 +1686,94 @@
     <col min="6" max="6" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
@@ -1595,35 +1797,133 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
+      <c r="B2" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1668,10 +1968,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1740,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1802,10 +2102,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1833,12 +2133,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1864,10 +2165,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1878,10 +2179,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1899,10 +2200,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="48.375" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1927,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1941,10 +2246,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1961,10 +2266,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1989,10 +2298,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2003,10 +2312,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -2023,11 +2332,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
   </cols>
@@ -2055,10 +2366,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2069,10 +2380,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F4E32-5AA2-4264-A2A9-08A924CDFB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E7218-6325-4A0A-A65C-2EDCD6B2E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -137,22 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KL_CassetteTape_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_CassettePlayer_T2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,80 +261,133 @@
     <t>Flag_TestTube_Obtained</t>
   </si>
   <si>
+    <t>TXT_Centrifuge_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_02</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_05</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_04</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_03</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_06</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_07</t>
+  </si>
+  <si>
+    <t>SetRoter4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetRoter6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetRoter8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Obtained</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Obtained</t>
+  </si>
+  <si>
+    <t>overWriteProgress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetRoter4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetRoter6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetRoter8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Flag_RotorSet</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_02</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_05</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_04</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_03</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_06</t>
-  </si>
-  <si>
-    <t>TXT_Centrifuge_07</t>
-  </si>
-  <si>
-    <t>SetRoter4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SetRoter6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SetRoter8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_4h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_6h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_4h_Obtained</t>
-  </si>
-  <si>
-    <t>KL_CassetteTape_002_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_003_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_004_Obtained</t>
-  </si>
-  <si>
-    <t>overWriteProgress</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_005_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_6h_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Obtained</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -826,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -868,12 +905,12 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
@@ -901,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -912,10 +949,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -926,10 +963,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -940,10 +977,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -954,10 +991,10 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1016,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1027,10 +1064,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1079,10 +1116,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1090,10 +1127,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1142,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1153,10 +1190,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1235,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1209,10 +1246,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1291,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1265,10 +1302,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1316,10 +1353,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1327,16 +1364,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1347,7 +1384,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1398,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1409,16 +1446,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1429,7 +1466,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1445,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCFB34-3A1E-4D54-8E0B-8FB9E2953786}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1479,10 +1516,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1490,16 +1527,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1510,7 +1547,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1527,14 +1564,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1560,10 +1600,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1571,13 +1611,19 @@
         <v>-1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -1585,10 +1631,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1596,7 +1642,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1646,10 +1692,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1675,14 +1721,14 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1709,10 +1755,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1720,10 +1766,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -1731,16 +1777,16 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1748,7 +1794,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1759,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1770,6 +1816,8 @@
     <col min="2" max="2" width="32.25" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
@@ -1797,10 +1845,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1808,13 +1856,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -1822,27 +1870,24 @@
         <v>-1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4">
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1">
@@ -1850,10 +1895,19 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5" thickBot="1">
@@ -1861,33 +1915,39 @@
         <v>-1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1">
       <c r="A7">
         <v>-1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>73</v>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1">
@@ -1895,35 +1955,92 @@
         <v>-1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1">
       <c r="A9">
         <v>-1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>62</v>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1968,10 +2085,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2040,10 +2157,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2102,10 +2219,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2140,6 +2257,7 @@
   <cols>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2165,10 +2283,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2179,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -2232,10 +2350,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2246,7 +2364,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -2298,10 +2416,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2312,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -2366,10 +2484,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2380,7 +2498,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E7218-6325-4A0A-A65C-2EDCD6B2E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50E88F-F125-4F1F-B079-CBF7AFD27529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="100">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -387,6 +387,37 @@
   </si>
   <si>
     <t>Flag_TestTube_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Memo_02_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_005</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_005</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -524,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,6 +575,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,16 +862,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1084,7 +1120,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1807,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1914,20 +1950,20 @@
       <c r="A6">
         <v>-1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>67</v>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1">
@@ -1935,19 +1971,19 @@
         <v>-1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1">
@@ -1955,39 +1991,39 @@
         <v>-1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1">
       <c r="A9">
         <v>-1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
@@ -2247,20 +2283,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50433C38-396D-491F-8EF9-3E35F9DB58FE}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2289,9 +2329,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2">
         <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -2304,6 +2347,14 @@
       </c>
       <c r="H2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2315,19 +2366,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D429CB5-CB3D-44ED-97DF-B9EBECF08E1A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="48.375" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2356,21 +2411,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2381,19 +2455,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B32760-5434-4AA3-ACE0-AEB88CDE9D6B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2422,21 +2497,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2447,21 +2541,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B7559-D613-4598-910E-DE315A34C03C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2490,21 +2586,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50E88F-F125-4F1F-B079-CBF7AFD27529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319EDF6F-557C-467A-8381-7A01EAB3A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="731" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Freezer" sheetId="19" r:id="rId19"/>
     <sheet name="DimpleKey" sheetId="20" r:id="rId20"/>
     <sheet name="Centrifuge" sheetId="21" r:id="rId21"/>
+    <sheet name="CentrifugeM" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="106">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -418,6 +419,29 @@
   </si>
   <si>
     <t>TXT_CassetteTape_3_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_RedSolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_02</t>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_04</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1597,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A214A98B-3D2A-49C0-801D-0B4E87DD4C13}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1642,42 +1666,53 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1844,7 +1879,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2077,6 +2112,99 @@
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A1D8E9-A8E3-48D6-8D8E-25E3D18A5946}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D429CB5-CB3D-44ED-97DF-B9EBECF08E1A}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319EDF6F-557C-467A-8381-7A01EAB3A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8168D-D349-4E2C-8E44-E3BE65D274F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="731" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="113">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -250,9 +250,6 @@
     <t>TXT_DimpleKey_03</t>
   </si>
   <si>
-    <t>Flag_CloudySolution_Obtained</t>
-  </si>
-  <si>
     <t>Flag_BlueSolution_Obtained</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>TXT_Centrifuge_03</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_06</t>
-  </si>
-  <si>
     <t>TXT_Centrifuge_07</t>
   </si>
   <si>
@@ -383,10 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flag_RotorSet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Flag_TestTube_Obtained</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -443,6 +433,40 @@
   <si>
     <t>TXT_CentrifugeM_04</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_09</t>
+  </si>
+  <si>
+    <t>Flag_TestTube_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_10</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_28</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_11</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_12</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_BlueCloudySolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_BlueCloudySolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_007</t>
   </si>
 </sst>
 </file>
@@ -491,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -553,21 +577,6 @@
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
@@ -579,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -598,10 +607,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1015,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -1023,7 +1029,7 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -1037,7 +1043,7 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -1051,7 +1057,7 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -1323,7 +1329,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1430,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1512,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1593,10 +1599,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1671,10 +1677,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -1691,10 +1697,10 @@
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
@@ -1876,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1893,7 +1899,7 @@
     <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1926,159 +1932,131 @@
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
+      <c r="B2" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>210</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>220</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>230</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A5">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A6">
-        <v>-1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" thickBot="1">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>-1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>220</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>70</v>
+        <v>104</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1">
       <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>230</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>104</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
       <c r="A10">
         <v>-1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>69</v>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>77</v>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1">
@@ -2086,32 +2064,166 @@
         <v>-1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1">
       <c r="A12">
         <v>-1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A1D8E9-A8E3-48D6-8D8E-25E3D18A5946}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2172,10 +2284,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2184,19 +2296,19 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2204,7 +2316,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -2481,8 +2593,8 @@
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>93</v>
+      <c r="C3" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2544,10 +2656,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -2555,13 +2667,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -2571,8 +2683,8 @@
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>99</v>
+      <c r="C4" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2630,10 +2742,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>96</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -2641,13 +2753,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -2657,8 +2769,8 @@
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>97</v>
+      <c r="C4" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2669,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B7559-D613-4598-910E-DE315A34C03C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2711,43 +2823,60 @@
         <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>94</v>
+      <c r="B2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>95</v>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8168D-D349-4E2C-8E44-E3BE65D274F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B11484-9E4B-4FF7-9C45-D2EEB78259B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="731" firstSheet="10" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="DimpleKey" sheetId="20" r:id="rId20"/>
     <sheet name="Centrifuge" sheetId="21" r:id="rId21"/>
     <sheet name="CentrifugeM" sheetId="22" r:id="rId22"/>
+    <sheet name="Pipet" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="116">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -467,6 +468,16 @@
   </si>
   <si>
     <t>TXT_CassetteTape_5_007</t>
+  </si>
+  <si>
+    <t>Flag_Memo_04_read</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_002</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2248,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2322,6 +2333,75 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AB8B4-BAA0-48F2-BE9B-EDA1E2E41D80}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2783,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B7559-D613-4598-910E-DE315A34C03C}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B11484-9E4B-4FF7-9C45-D2EEB78259B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581EDC86-CADE-4A61-A614-344DB105618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="731" firstSheet="10" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="Centrifuge" sheetId="21" r:id="rId21"/>
     <sheet name="CentrifugeM" sheetId="22" r:id="rId22"/>
     <sheet name="Pipet" sheetId="25" r:id="rId23"/>
+    <sheet name="Door" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="129">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -478,6 +479,49 @@
   </si>
   <si>
     <t>TXT_Pipet_002</t>
+  </si>
+  <si>
+    <t>Flag_Memo_05_read</t>
+  </si>
+  <si>
+    <t>TXT_Door_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Door_002</t>
+  </si>
+  <si>
+    <t>Tape2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tape3</t>
+  </si>
+  <si>
+    <t>Tape4</t>
+  </si>
+  <si>
+    <t>Tape5</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Listening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Listening</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Listening</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Listening</t>
+  </si>
+  <si>
+    <t>StopTape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T6</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98235F59-918C-4F48-B84F-FA19659B1676}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -990,6 +1034,8 @@
     <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1026,13 +1072,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1040,13 +1089,16 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1054,13 +1106,16 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1068,24 +1123,89 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
         <v>-1</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2340,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AB8B4-BAA0-48F2-BE9B-EDA1E2E41D80}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2402,6 +2522,74 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D639D-15E9-48B7-BC15-5707895B0F44}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="41.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581EDC86-CADE-4A61-A614-344DB105618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D176E54-2974-498E-A0EC-1CCEDDA70D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,8 @@
     <sheet name="CentrifugeM" sheetId="22" r:id="rId22"/>
     <sheet name="Pipet" sheetId="25" r:id="rId23"/>
     <sheet name="Door" sheetId="26" r:id="rId24"/>
+    <sheet name="ReagentBottle" sheetId="27" r:id="rId25"/>
+    <sheet name="TipHolder" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="160">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -522,13 +524,120 @@
   </si>
   <si>
     <t>TXT_CassettePlayer_T6</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Listened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Listened</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Listened</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Listened</t>
+  </si>
+  <si>
+    <t>SetTube4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetTube6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetTube8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Listened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_ReagentBottle_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle_002</t>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle_003</t>
+  </si>
+  <si>
+    <t>ReizoOpen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TipHolder_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TipHolder_002</t>
+  </si>
+  <si>
+    <t>Flag_TipHolder_Obtained</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_003</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_006</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_007</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_008</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_009</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_010</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_011</t>
+  </si>
+  <si>
+    <t>Flag_PurpleClowdySolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleSolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_014</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_015</t>
+  </si>
+  <si>
+    <t>Flag_PurpleClowdySolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +660,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -643,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -665,6 +780,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1025,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98235F59-918C-4F48-B84F-FA19659B1676}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1149,7 +1265,7 @@
         <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1166,7 +1282,7 @@
         <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1183,7 +1299,7 @@
         <v>121</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1200,7 +1316,7 @@
         <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1760,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A214A98B-3D2A-49C0-801D-0B4E87DD4C13}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2016,7 +2132,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2093,6 +2209,9 @@
       <c r="C4" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
@@ -2104,6 +2223,9 @@
       <c r="C5" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
@@ -2115,6 +2237,9 @@
       <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
@@ -2126,6 +2251,9 @@
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2143,6 +2271,9 @@
       <c r="C8" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>104</v>
       </c>
@@ -2159,6 +2290,9 @@
       </c>
       <c r="C9" s="4" t="s">
         <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>104</v>
@@ -2368,7 +2502,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2458,19 +2592,20 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AB8B4-BAA0-48F2-BE9B-EDA1E2E41D80}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2499,22 +2634,170 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>113</v>
+      <c r="B2" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
         <v>-1</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>350</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>340</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>330</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>330</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>320</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>300</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2585,6 +2868,180 @@
       </c>
       <c r="C3" s="4" t="s">
         <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B699AF-6151-4906-AA7E-7444E1F5799B}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C5302-906A-4BFF-8436-5DAEFF6307D8}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3049,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B7559-D613-4598-910E-DE315A34C03C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3098,52 +3555,69 @@
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>111</v>
+      <c r="B2" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="I2">
-        <v>190</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
         <v>-1</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>91</v>
+        <v>112</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1">
       <c r="A5">
         <v>-1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D176E54-2974-498E-A0EC-1CCEDDA70D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B800D79-E009-453C-9748-42171767D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="165">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -631,6 +631,25 @@
   </si>
   <si>
     <t>TXT_CassetteTape_5_008</t>
+  </si>
+  <si>
+    <t>Flag_PurpleSolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_5_02</t>
+  </si>
+  <si>
+    <t>OnLight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OffLight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1061,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1108,26 +1127,34 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>110</v>
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1573,13 +1600,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6617186E-9F8A-410B-A73A-EEDDC5A8D485}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
@@ -1614,11 +1644,43 @@
       <c r="A2">
         <v>-1</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1977,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1411C4B-B300-49A7-846F-72FBC2031106}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2024,12 +2086,37 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>110</v>
+        <v>510</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4">
         <v>120</v>
       </c>
     </row>
@@ -2594,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AB8B4-BAA0-48F2-BE9B-EDA1E2E41D80}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2728,7 +2815,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>144</v>
@@ -2765,7 +2852,7 @@
         <v>146</v>
       </c>
       <c r="I11">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2810,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D639D-15E9-48B7-BC15-5707895B0F44}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2822,7 +2909,7 @@
     <col min="3" max="3" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2851,22 +2938,41 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>510</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B800D79-E009-453C-9748-42171767D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF887D30-9640-49FA-B29E-5D7E6E33223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="166">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -649,6 +649,10 @@
   </si>
   <si>
     <t>Clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOver</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2900,13 +2904,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="41.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2944,6 +2949,9 @@
       </c>
       <c r="B2" s="9" t="s">
         <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF887D30-9640-49FA-B29E-5D7E6E33223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5144438E-2A19-4C65-A26A-9E38C1B0D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -142,22 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TXT_CassettePlayer_T2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Memo_1_01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,9 +507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TXT_CassettePlayer_T6</t>
-  </si>
-  <si>
     <t>KL_CassetteTape_002_Listened</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,6 +634,26 @@
   </si>
   <si>
     <t>GameOver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T4_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T6_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1123,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1172,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98235F59-918C-4F48-B84F-FA19659B1676}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1208,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1219,16 +1220,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1236,16 +1237,16 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1253,16 +1254,16 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1270,16 +1271,16 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1287,16 +1288,16 @@
         <v>-1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1304,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1321,16 +1322,16 @@
         <v>-1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1338,19 +1339,22 @@
         <v>-1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10">
+        <v>-1</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1397,10 +1401,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1408,10 +1412,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1460,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1471,10 +1475,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1523,10 +1527,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1534,10 +1538,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1579,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1590,10 +1594,10 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1642,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1649,13 +1653,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>500</v>
@@ -1666,13 +1670,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>500</v>
@@ -1684,7 +1688,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1732,10 +1736,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1743,16 +1747,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1763,7 +1767,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1814,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1825,16 +1829,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1845,7 +1849,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1895,10 +1899,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -1906,16 +1910,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1926,7 +1930,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1979,10 +1983,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1990,10 +1994,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -2001,19 +2005,19 @@
         <v>-1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
@@ -2021,10 +2025,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2032,7 +2036,7 @@
         <v>-1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2082,10 +2086,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2093,7 +2097,7 @@
         <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2107,7 +2111,7 @@
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I3">
         <v>510</v>
@@ -2118,7 +2122,7 @@
         <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I4">
         <v>120</v>
@@ -2170,10 +2174,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -2181,10 +2185,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -2192,16 +2196,16 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2209,7 +2213,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2260,10 +2264,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -2271,10 +2275,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -2283,10 +2287,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -2295,13 +2299,13 @@
         <v>210</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2309,13 +2313,13 @@
         <v>220</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2323,13 +2327,13 @@
         <v>230</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2337,19 +2341,19 @@
         <v>210</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2357,19 +2361,19 @@
         <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1">
@@ -2377,19 +2381,19 @@
         <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
@@ -2397,19 +2401,19 @@
         <v>-1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>200</v>
@@ -2420,19 +2424,19 @@
         <v>-1</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>200</v>
@@ -2443,19 +2447,19 @@
         <v>-1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>200</v>
@@ -2466,19 +2470,19 @@
         <v>-1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>210</v>
@@ -2489,19 +2493,19 @@
         <v>-1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>220</v>
@@ -2512,19 +2516,19 @@
         <v>-1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>230</v>
@@ -2535,10 +2539,10 @@
         <v>-1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" thickBot="1">
@@ -2546,10 +2550,10 @@
         <v>-1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" thickBot="1">
@@ -2557,10 +2561,10 @@
         <v>-1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" thickBot="1">
@@ -2568,10 +2572,10 @@
         <v>-1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2579,7 +2583,7 @@
         <v>-1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2633,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2640,10 +2644,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2652,19 +2656,19 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2672,7 +2676,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +2723,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2730,10 +2734,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2741,10 +2745,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2752,10 +2756,10 @@
         <v>350</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I4">
         <v>370</v>
@@ -2766,10 +2770,10 @@
         <v>340</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I5">
         <v>360</v>
@@ -2780,10 +2784,10 @@
         <v>330</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I6">
         <v>350</v>
@@ -2794,10 +2798,10 @@
         <v>330</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I7">
         <v>340</v>
@@ -2808,10 +2812,10 @@
         <v>320</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I8">
         <v>330</v>
@@ -2822,10 +2826,10 @@
         <v>310</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I9">
         <v>320</v>
@@ -2836,10 +2840,10 @@
         <v>300</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I10">
         <v>320</v>
@@ -2850,10 +2854,10 @@
         <v>-1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I11">
         <v>310</v>
@@ -2864,10 +2868,10 @@
         <v>-1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I12">
         <v>300</v>
@@ -2878,10 +2882,10 @@
         <v>-1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2889,7 +2893,7 @@
         <v>-1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D639D-15E9-48B7-BC15-5707895B0F44}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2937,10 +2941,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2948,10 +2952,10 @@
         <v>510</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -2959,10 +2963,10 @@
         <v>510</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
@@ -2970,10 +2974,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2981,7 +2985,7 @@
         <v>-1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3030,10 +3034,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3041,10 +3045,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3052,19 +3056,19 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3072,10 +3076,10 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3124,10 +3128,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -3135,16 +3139,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -3155,7 +3159,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3200,10 +3204,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3272,10 +3276,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3334,10 +3338,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3402,10 +3406,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -3413,13 +3417,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -3433,7 +3437,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3484,10 +3488,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -3495,10 +3499,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -3506,13 +3510,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -3523,7 +3527,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3570,10 +3574,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -3581,10 +3585,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -3592,13 +3596,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -3609,7 +3613,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3659,10 +3663,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1">
@@ -3670,13 +3674,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I2">
         <v>290</v>
@@ -3687,13 +3691,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I3">
         <v>190</v>
@@ -3704,10 +3708,10 @@
         <v>-1</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1">
@@ -3715,13 +3719,13 @@
         <v>-1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3732,7 +3736,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5144438E-2A19-4C65-A26A-9E38C1B0D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACDCB5-36F1-46CF-82B4-B724D03B28FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="172">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -655,6 +655,28 @@
   <si>
     <t>TXT_CassettePlayer_T6_001</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_2_00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_3_00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_3_03</t>
+  </si>
+  <si>
+    <t>TXT_Memo_4_00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Listening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_4_03</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98235F59-918C-4F48-B84F-FA19659B1676}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1370,7 +1392,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1429,15 +1451,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F9F40-1121-4A4B-AD4F-FBEE80ADD126}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1474,13 +1497,24 @@
       <c r="A2">
         <v>-1</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="b">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1492,14 +1526,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE02D04C-FD22-4612-A5E3-54709F65941C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="17.375" customWidth="1"/>
   </cols>
@@ -1537,11 +1572,47 @@
       <c r="A2">
         <v>-1</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1552,13 +1623,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFADA5-9ACB-4026-968E-340252BEDDD5}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
       <c r="A1" t="s">
@@ -1593,11 +1667,33 @@
       <c r="A2">
         <v>-1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1707,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1701,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22FE96D-9BB5-4004-BB4B-20A71CB101BE}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACDCB5-36F1-46CF-82B4-B724D03B28FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20642392-BB0A-4117-87C1-4E46B8BDDC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="174">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -433,9 +433,6 @@
     <t>TXT_Centrifuge_10</t>
   </si>
   <si>
-    <t>TXT_Centrifuge_28</t>
-  </si>
-  <si>
     <t>TXT_Centrifuge_11</t>
   </si>
   <si>
@@ -677,6 +674,16 @@
   </si>
   <si>
     <t>TXT_Memo_4_03</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_05</t>
+  </si>
+  <si>
+    <t>TXT_Door_003</t>
   </si>
 </sst>
 </file>
@@ -1242,16 +1249,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1259,16 +1266,16 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1276,16 +1283,16 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1293,16 +1300,16 @@
         <v>-1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1313,13 +1320,13 @@
         <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1330,13 +1337,13 @@
         <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1347,13 +1354,13 @@
         <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1364,13 +1371,13 @@
         <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1512,7 +1519,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1573,7 +1580,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -1601,10 +1608,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1612,7 +1619,7 @@
         <v>-1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1682,10 +1689,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1693,7 +1700,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
@@ -1766,7 +1773,7 @@
         <v>-1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
@@ -1784,7 +1791,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22FE96D-9BB5-4004-BB4B-20A71CB101BE}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2193,7 +2200,7 @@
         <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2207,7 +2214,7 @@
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3">
         <v>510</v>
@@ -2218,7 +2225,7 @@
         <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4">
         <v>120</v>
@@ -2322,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2371,7 +2378,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
@@ -2386,7 +2393,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -2412,7 +2419,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>100</v>
@@ -2426,7 +2433,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>100</v>
@@ -2443,7 +2450,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>100</v>
@@ -2460,10 +2467,10 @@
         <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>100</v>
@@ -2480,10 +2487,10 @@
         <v>95</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>100</v>
@@ -2690,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A1D8E9-A8E3-48D6-8D8E-25E3D18A5946}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2747,7 +2754,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -2767,11 +2774,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4">
         <v>-1</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2830,10 +2848,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2841,10 +2859,10 @@
         <v>-1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2852,10 +2870,10 @@
         <v>350</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>370</v>
@@ -2866,10 +2884,10 @@
         <v>340</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5">
         <v>360</v>
@@ -2880,10 +2898,10 @@
         <v>330</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6">
         <v>350</v>
@@ -2897,7 +2915,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I7">
         <v>340</v>
@@ -2911,7 +2929,7 @@
         <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8">
         <v>330</v>
@@ -2922,10 +2940,10 @@
         <v>310</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9">
         <v>320</v>
@@ -2936,10 +2954,10 @@
         <v>300</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10">
         <v>320</v>
@@ -2950,10 +2968,10 @@
         <v>-1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I11">
         <v>310</v>
@@ -2964,10 +2982,10 @@
         <v>-1</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="I12">
         <v>300</v>
@@ -2978,10 +2996,10 @@
         <v>-1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2989,7 +3007,7 @@
         <v>-1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3001,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D639D-15E9-48B7-BC15-5707895B0F44}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3048,40 +3066,62 @@
         <v>510</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>510</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3141,10 +3181,10 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3152,19 +3192,19 @@
         <v>-1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3172,10 +3212,10 @@
         <v>-1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3235,16 +3275,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -3255,7 +3295,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3770,13 +3810,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2">
         <v>290</v>
@@ -3787,13 +3827,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3">
         <v>190</v>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20642392-BB0A-4117-87C1-4E46B8BDDC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4229B8A-DD51-42E6-99F2-C939ADBBB22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="731" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1603,12 +1603,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>167</v>
@@ -2329,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2699,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A1D8E9-A8E3-48D6-8D8E-25E3D18A5946}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
-        <v>-1</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>95</v>
@@ -2783,6 +2783,9 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>172</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3021,7 +3024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D639D-15E9-48B7-BC15-5707895B0F44}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Tables/DT_Gimicks.xlsx
+++ b/Assets/Tables/DT_Gimicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4229B8A-DD51-42E6-99F2-C939ADBBB22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07227EF-B8AF-4920-B008-B172B8180ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="731" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="175">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>TXT_Door_003</t>
+  </si>
+  <si>
+    <t>TXT_Door_004</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1402,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1714,7 +1717,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2329,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD53E7-9486-4A7A-BD0C-856F6403E591}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2383,7 +2386,9 @@
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
       <c r="A3">
@@ -2395,7 +2400,9 @@
       <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -2407,9 +2414,6 @@
       <c r="C4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
@@ -2421,9 +2425,6 @@
       <c r="C5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
@@ -2435,9 +2436,7 @@
       <c r="C6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
@@ -2699,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A1D8E9-A8E3-48D6-8D8E-25E3D18A5946}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3022,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81D639D-15E9-48B7-BC15-5707895B0F44}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3088,21 +3087,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A5">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>173</v>
@@ -3112,20 +3108,34 @@
       <c r="A6">
         <v>-1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
